--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2672468.207051149</v>
+        <v>2670012.255506497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10392628.21291233</v>
+        <v>10392628.21291234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>195.2590144254304</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.44519585835043</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128494</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>307.2654071077723</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>13.91332762480678</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5090575347321</v>
+        <v>244.7668936684482</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0481076422591</v>
+        <v>297.048107642259</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4582574919345</v>
+        <v>286.4582574919344</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7055859435133</v>
+        <v>313.7055859435132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>338.6512616129629</v>
       </c>
       <c r="G17" t="n">
-        <v>268.9090977466768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.382980258572</v>
+        <v>226.3829802585719</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96297765942735</v>
+        <v>40.96297765942722</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6931860108717</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7703878301535</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5063165497206</v>
+        <v>301.5063165497205</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02203696987935</v>
+        <v>99.02203696987924</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39068888946387</v>
+        <v>80.39068888946376</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20917851782069</v>
+        <v>78.20917851782058</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19626389418276</v>
+        <v>77.19626389418265</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80102413027974</v>
+        <v>97.80102413027963</v>
       </c>
       <c r="H19" t="n">
-        <v>76.5302307855723</v>
+        <v>76.53023078557219</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12763628108961</v>
+        <v>28.1276362810895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70736854129885</v>
+        <v>20.70736854129873</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9870540768644</v>
+        <v>217.9870540768643</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4848712602887</v>
+        <v>157.4848712602886</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5090575347321</v>
+        <v>314.5090575347319</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>297.048107642259</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4582574919345</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7055859435133</v>
+        <v>187.7247380444597</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651261612963</v>
+        <v>338.6512616129628</v>
       </c>
       <c r="G20" t="n">
-        <v>342.696941524705</v>
+        <v>342.6969415247048</v>
       </c>
       <c r="H20" t="n">
-        <v>226.382980258572</v>
+        <v>226.3829802585718</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96297765942734</v>
+        <v>40.96297765942722</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6931860108717</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U20" t="n">
-        <v>67.37939008142179</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5063165497206</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02203696987935</v>
+        <v>99.02203696987922</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39068888946387</v>
+        <v>80.39068888946375</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20917851782069</v>
+        <v>78.20917851782056</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19626389418276</v>
+        <v>77.19626389418264</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80102413027974</v>
+        <v>97.80102413027961</v>
       </c>
       <c r="H22" t="n">
-        <v>76.5302307855723</v>
+        <v>76.53023078557217</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12763628108961</v>
+        <v>28.12763628108949</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70736854129885</v>
+        <v>20.70736854129872</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9870540768644</v>
+        <v>217.9870540768642</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4848712602887</v>
+        <v>157.4848712602885</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5090575347321</v>
+        <v>314.5090575347319</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0481076422591</v>
+        <v>297.048107642259</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4582574919345</v>
+        <v>286.4582574919343</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7055859435133</v>
+        <v>313.7055859435131</v>
       </c>
       <c r="F23" t="n">
-        <v>338.651261612963</v>
+        <v>338.6512616129628</v>
       </c>
       <c r="G23" t="n">
-        <v>342.696941524705</v>
+        <v>342.6969415247048</v>
       </c>
       <c r="H23" t="n">
-        <v>226.382980258572</v>
+        <v>226.3829802585718</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96297765942734</v>
+        <v>40.96297765942722</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6931860108717</v>
+        <v>135.6931860108715</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7703878301535</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5063165497206</v>
+        <v>301.5063165497204</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02203696987935</v>
+        <v>99.02203696987922</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39068888946387</v>
+        <v>80.39068888946375</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20917851782069</v>
+        <v>78.20917851782056</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19626389418276</v>
+        <v>77.19626389418264</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80102413027974</v>
+        <v>97.80102413027961</v>
       </c>
       <c r="H25" t="n">
-        <v>76.5302307855723</v>
+        <v>76.53023078557217</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12763628108961</v>
+        <v>28.12763628108949</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70736854129885</v>
+        <v>20.70736854129872</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9870540768644</v>
+        <v>217.9870540768642</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4848712602887</v>
+        <v>157.4848712602885</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124544</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.0332159364514</v>
+        <v>310.0332159364516</v>
       </c>
       <c r="C35" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439785</v>
       </c>
       <c r="D35" t="n">
-        <v>281.9824158936532</v>
+        <v>281.982415893654</v>
       </c>
       <c r="E35" t="n">
-        <v>309.2297443452326</v>
+        <v>309.2297443452328</v>
       </c>
       <c r="F35" t="n">
-        <v>334.1754200146823</v>
+        <v>334.1754200146825</v>
       </c>
       <c r="G35" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264245</v>
       </c>
       <c r="H35" t="n">
-        <v>221.9071386602913</v>
+        <v>221.9071386602915</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.48713606114666</v>
+        <v>36.48713606114683</v>
       </c>
       <c r="T35" t="n">
-        <v>131.217344412591</v>
+        <v>131.2173444125911</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2945462318728</v>
+        <v>178.294546231873</v>
       </c>
       <c r="V35" t="n">
-        <v>255.0516327431058</v>
+        <v>255.0516327431059</v>
       </c>
       <c r="W35" t="n">
-        <v>276.5403429903839</v>
+        <v>276.540342990384</v>
       </c>
       <c r="X35" t="n">
-        <v>297.0304749514399</v>
+        <v>297.0304749514401</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.5373129290244</v>
+        <v>313.5373129290246</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.1313544549081</v>
+        <v>107.1313544549083</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54619537159867</v>
+        <v>94.54619537159883</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91484729118319</v>
+        <v>75.91484729118335</v>
       </c>
       <c r="E37" t="n">
-        <v>73.73333691954001</v>
+        <v>73.73333691954016</v>
       </c>
       <c r="F37" t="n">
-        <v>72.72042229590208</v>
+        <v>72.72042229590224</v>
       </c>
       <c r="G37" t="n">
-        <v>136.6103570679246</v>
+        <v>93.32518253199922</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05438918729162</v>
+        <v>72.05438918729178</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65179468280893</v>
+        <v>23.65179468280909</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23152694301817</v>
+        <v>59.51670147894161</v>
       </c>
       <c r="S37" t="n">
-        <v>117.0683996044127</v>
+        <v>117.0683996044129</v>
       </c>
       <c r="T37" t="n">
-        <v>146.84832354914</v>
+        <v>146.8483235491402</v>
       </c>
       <c r="U37" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785838</v>
       </c>
       <c r="V37" t="n">
-        <v>179.4370175967989</v>
+        <v>179.437017596799</v>
       </c>
       <c r="W37" t="n">
-        <v>213.8223726095619</v>
+        <v>213.822372609562</v>
       </c>
       <c r="X37" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620081</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8840276250656</v>
+        <v>145.8840276250658</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.0332159364514</v>
+        <v>310.0332159364516</v>
       </c>
       <c r="C38" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439785</v>
       </c>
       <c r="D38" t="n">
-        <v>281.9824158936538</v>
+        <v>281.982415893654</v>
       </c>
       <c r="E38" t="n">
-        <v>309.2297443452326</v>
+        <v>309.2297443452328</v>
       </c>
       <c r="F38" t="n">
-        <v>334.1754200146823</v>
+        <v>334.1754200146825</v>
       </c>
       <c r="G38" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264245</v>
       </c>
       <c r="H38" t="n">
-        <v>221.9071386602913</v>
+        <v>221.9071386602915</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48713606114663</v>
+        <v>36.48713606114683</v>
       </c>
       <c r="T38" t="n">
-        <v>131.217344412591</v>
+        <v>131.2173444125912</v>
       </c>
       <c r="U38" t="n">
-        <v>178.2945462318728</v>
+        <v>178.294546231873</v>
       </c>
       <c r="V38" t="n">
-        <v>255.0516327431058</v>
+        <v>255.0516327431059</v>
       </c>
       <c r="W38" t="n">
-        <v>276.5403429903839</v>
+        <v>276.540342990384</v>
       </c>
       <c r="X38" t="n">
-        <v>297.0304749514399</v>
+        <v>297.0304749514401</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.5373129290244</v>
+        <v>313.5373129290246</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.1313544549081</v>
+        <v>107.1313544549083</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54619537159867</v>
+        <v>94.54619537159883</v>
       </c>
       <c r="D40" t="n">
-        <v>119.2000218271091</v>
+        <v>119.2000218271066</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73333691954001</v>
+        <v>73.73333691954016</v>
       </c>
       <c r="F40" t="n">
-        <v>72.72042229590208</v>
+        <v>72.72042229590224</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32518253199906</v>
+        <v>93.32518253199922</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05438918729162</v>
+        <v>72.05438918729178</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65179468280892</v>
+        <v>23.65179468280909</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23152694301815</v>
+        <v>16.23152694301832</v>
       </c>
       <c r="S40" t="n">
-        <v>117.0683996044127</v>
+        <v>117.0683996044129</v>
       </c>
       <c r="T40" t="n">
-        <v>146.84832354914</v>
+        <v>146.8483235491402</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785838</v>
       </c>
       <c r="V40" t="n">
-        <v>179.4370175967989</v>
+        <v>179.437017596799</v>
       </c>
       <c r="W40" t="n">
-        <v>213.8223726095619</v>
+        <v>213.822372609562</v>
       </c>
       <c r="X40" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620081</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.8840276250656</v>
+        <v>145.8840276250658</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>222.4310137042855</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
@@ -3800,7 +3800,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>161.2644432713172</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>293.899612679192</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0.8060213432257206</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.936470383459</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.423586391121</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.607520732444</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822728</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822728</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3311.014714681545</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3152.48660001384</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2946.40575623575</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2662.792501840253</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.792501840253</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2336.776376527246</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1994.086677499508</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,13 +5218,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874607</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464214</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>979.8546354718753</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D14" t="n">
-        <v>669.038569813198</v>
+        <v>990.5514538055361</v>
       </c>
       <c r="E14" t="n">
-        <v>330.6999501630266</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F14" t="n">
-        <v>330.6999501630266</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5276,19 +5276,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912097</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939509</v>
@@ -5300,13 +5300,13 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
         <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
         <v>2898.155827638545</v>
@@ -5318,7 +5318,7 @@
         <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608001</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
         <v>1640.517726580262</v>
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5437,22 +5437,22 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328092</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337119</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1473.081842778604</v>
+        <v>1543.528472946569</v>
       </c>
       <c r="C17" t="n">
-        <v>1173.033249200564</v>
+        <v>1243.47987936853</v>
       </c>
       <c r="D17" t="n">
-        <v>883.681473956186</v>
+        <v>954.1281041241514</v>
       </c>
       <c r="E17" t="n">
-        <v>566.8071447203135</v>
+        <v>637.2537748882794</v>
       </c>
       <c r="F17" t="n">
-        <v>566.8071447203135</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="G17" t="n">
-        <v>295.181793461044</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.229076498638</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.165252245232</v>
+        <v>3147.165252245233</v>
       </c>
       <c r="U17" t="n">
-        <v>2962.548698881441</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V17" t="n">
-        <v>2700.399734900242</v>
+        <v>2700.399734900244</v>
       </c>
       <c r="W17" t="n">
-        <v>2416.5450029925</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X17" t="n">
-        <v>2111.993168093793</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y17" t="n">
-        <v>1790.767759480354</v>
+        <v>1790.767759480355</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.216216905202</v>
+        <v>609.2162169052012</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1939573396673</v>
+        <v>509.1939573396666</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9912412897038</v>
+        <v>427.9912412897032</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9920710696829</v>
+        <v>348.9920710696824</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0160469341447</v>
+        <v>271.0160469341444</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2271336712359</v>
+        <v>172.2271336712357</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92387025146586</v>
+        <v>94.92387025146576</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5686,37 +5686,37 @@
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.691186892789</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.298687326448</v>
+        <v>1878.298687326446</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.908983478963</v>
+        <v>1955.908983478961</v>
       </c>
       <c r="R19" t="n">
-        <v>1934.992449598863</v>
+        <v>1934.992449598862</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.220488788062</v>
+        <v>1812.22048878806</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.36779671996</v>
+        <v>1659.367796719959</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.178853207976</v>
+        <v>1439.178853207974</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.408288364461</v>
+        <v>1253.40828836446</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.905041689873</v>
+        <v>1032.905041689871</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8294141542275</v>
+        <v>873.8294141542265</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9507583730696</v>
+        <v>721.9507583730687</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1589.638406161161</v>
+        <v>1473.081842778606</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.638406161161</v>
+        <v>1173.033249200566</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.286630916783</v>
+        <v>1173.033249200566</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4123016809106</v>
+        <v>983.4123016809102</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3403202536753</v>
+        <v>641.340320253675</v>
       </c>
       <c r="G20" t="n">
-        <v>295.181793461044</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.229076498638</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T20" t="n">
-        <v>3147.165252245232</v>
+        <v>3147.165252245233</v>
       </c>
       <c r="U20" t="n">
-        <v>3079.105262263998</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V20" t="n">
-        <v>2816.9562982828</v>
+        <v>2700.399734900244</v>
       </c>
       <c r="W20" t="n">
-        <v>2533.101566375058</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X20" t="n">
-        <v>2228.54973147635</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y20" t="n">
-        <v>1907.32432286291</v>
+        <v>1790.767759480355</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.216216905202</v>
+        <v>609.2162169052011</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1939573396673</v>
+        <v>509.1939573396665</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9912412897038</v>
+        <v>427.9912412897031</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9920710696829</v>
+        <v>348.9920710696823</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0160469341447</v>
+        <v>271.0160469341443</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2271336712359</v>
+        <v>172.2271336712356</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92387025146586</v>
+        <v>94.92387025146574</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>140.249184269587</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>344.2363672184634</v>
       </c>
       <c r="L22" t="n">
-        <v>660.7961656669615</v>
+        <v>660.7961656669595</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.953211266511</v>
+        <v>1004.953211266509</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.361587972375</v>
+        <v>1346.361587972373</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.691186892789</v>
+        <v>1645.691186892787</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.298687326448</v>
+        <v>1878.298687326446</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.908983478963</v>
+        <v>1955.908983478961</v>
       </c>
       <c r="R22" t="n">
-        <v>1934.992449598863</v>
+        <v>1934.992449598861</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.220488788062</v>
+        <v>1812.22048878806</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.36779671996</v>
+        <v>1659.367796719958</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.178853207976</v>
+        <v>1439.178853207974</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.408288364461</v>
+        <v>1253.40828836446</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.905041689873</v>
+        <v>1032.905041689871</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8294141542275</v>
+        <v>873.8294141542262</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9507583730696</v>
+        <v>721.9507583730685</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.189145799622</v>
+        <v>1898.18914579962</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.140552221583</v>
+        <v>1598.140552221581</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.788776977204</v>
+        <v>1308.788776977203</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9144477413322</v>
+        <v>991.9144477413306</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8424663140968</v>
+        <v>649.8424663140955</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6839395214644</v>
+        <v>303.6839395214642</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01426249260379</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01426249260379</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2990424719823</v>
+        <v>431.2990424719822</v>
       </c>
       <c r="K23" t="n">
         <v>765.1184161618287</v>
@@ -5999,40 +5999,40 @@
         <v>1749.684534082162</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463351140944</v>
+        <v>2480.603603406933</v>
       </c>
       <c r="O23" t="n">
-        <v>2838.44348920722</v>
+        <v>2983.57607428627</v>
       </c>
       <c r="P23" t="n">
-        <v>3233.217855564399</v>
+        <v>3378.350440643448</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.696058073387</v>
+        <v>3626.63680239913</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.713124630189</v>
+        <v>3750.713124630186</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.336379519656</v>
+        <v>3709.336379519653</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.272555266251</v>
+        <v>3572.272555266248</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.656001902459</v>
+        <v>3387.656001902457</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.507037921261</v>
+        <v>3125.507037921258</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.652306013519</v>
+        <v>2841.652306013517</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.100471114811</v>
+        <v>2537.100471114809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.875062501372</v>
+        <v>2215.87506250137</v>
       </c>
     </row>
     <row r="24">
@@ -6051,19 +6051,19 @@
         <v>626.6585615991507</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4211065936953</v>
+        <v>467.4211065936952</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8865486205802</v>
+        <v>320.8865486205801</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5234484531983</v>
+        <v>184.5234484531982</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02155409106584</v>
+        <v>94.02155409106575</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01426249260379</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="J24" t="n">
         <v>168.6915319832208</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7183629656224</v>
+        <v>617.7183629656213</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6961034000877</v>
+        <v>517.6961034000867</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4933873501242</v>
+        <v>436.4933873501234</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4942171301033</v>
+        <v>357.4942171301026</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5181929945651</v>
+        <v>279.5181929945646</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7292797316562</v>
+        <v>180.7292797316559</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4260163118862</v>
+        <v>103.426016311886</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01426249260379</v>
+        <v>75.01426249260372</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1368949395394</v>
+        <v>148.7513303300073</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1240778884157</v>
+        <v>352.7385132788837</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6838763369119</v>
+        <v>669.2983117273798</v>
       </c>
       <c r="M25" t="n">
-        <v>984.840921936461</v>
+        <v>1013.455357326929</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249298642326</v>
+        <v>1354.863734032793</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.578897562739</v>
+        <v>1654.193332953207</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.800833386868</v>
+        <v>1886.800833386866</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.411129539383</v>
+        <v>1964.411129539381</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.494595659283</v>
+        <v>1943.494595659281</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.722634848482</v>
+        <v>1820.72263484848</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.86994278038</v>
+        <v>1667.869942780379</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.680999268396</v>
+        <v>1447.680999268395</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.910434424881</v>
+        <v>1261.91043442488</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.407187750293</v>
+        <v>1041.407187750292</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3315602146479</v>
+        <v>882.3315602146465</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4529044334899</v>
+        <v>730.4529044334887</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P26" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,34 +6400,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1092.155029011367</v>
+        <v>937.3106675423214</v>
       </c>
       <c r="L29" t="n">
-        <v>1543.189242259776</v>
+        <v>1388.34488079073</v>
       </c>
       <c r="M29" t="n">
-        <v>2076.7211469317</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N29" t="n">
-        <v>2623.499963990483</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O29" t="n">
-        <v>3126.47243486982</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6646,16 +6646,16 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
         <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.771103905774</v>
+        <v>1869.771103905776</v>
       </c>
       <c r="C35" t="n">
-        <v>1574.24356244721</v>
+        <v>1574.243562447212</v>
       </c>
       <c r="D35" t="n">
-        <v>1289.412839322308</v>
+        <v>1289.412839322309</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0595622059117</v>
+        <v>977.0595622059125</v>
       </c>
       <c r="F35" t="n">
-        <v>639.5086328981517</v>
+        <v>639.5086328981524</v>
       </c>
       <c r="G35" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249961</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J35" t="n">
-        <v>430.0073132949892</v>
+        <v>430.0073132949893</v>
       </c>
       <c r="K35" t="n">
         <v>763.8266869848358</v>
@@ -6953,34 +6953,34 @@
         <v>2798.144092843288</v>
       </c>
       <c r="P35" t="n">
-        <v>3192.918459200467</v>
+        <v>3378.823237468056</v>
       </c>
       <c r="Q35" t="n">
-        <v>3562.050343549483</v>
+        <v>3627.109599223738</v>
       </c>
       <c r="R35" t="n">
-        <v>3686.126665780538</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.270972789481</v>
+        <v>3649.270972789483</v>
       </c>
       <c r="T35" t="n">
-        <v>3516.728200655551</v>
+        <v>3516.728200655553</v>
       </c>
       <c r="U35" t="n">
-        <v>3336.632699411234</v>
+        <v>3336.632699411237</v>
       </c>
       <c r="V35" t="n">
-        <v>3079.004787549511</v>
+        <v>3079.004787549514</v>
       </c>
       <c r="W35" t="n">
-        <v>2799.671107761244</v>
+        <v>2799.671107761247</v>
       </c>
       <c r="X35" t="n">
-        <v>2499.640324982012</v>
+        <v>2499.640324982015</v>
       </c>
       <c r="Y35" t="n">
-        <v>2182.935968488048</v>
+        <v>2182.935968488051</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H36" t="n">
-        <v>92.72982491407279</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J36" t="n">
         <v>167.3998028062281</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>628.5016674734381</v>
+        <v>584.7792689523023</v>
       </c>
       <c r="C37" t="n">
-        <v>533.0004600273788</v>
+        <v>489.278061506243</v>
       </c>
       <c r="D37" t="n">
-        <v>456.3187960968908</v>
+        <v>412.5963975757547</v>
       </c>
       <c r="E37" t="n">
-        <v>381.8406779963453</v>
+        <v>338.1182794752091</v>
       </c>
       <c r="F37" t="n">
-        <v>308.3857059802826</v>
+        <v>264.6633074591463</v>
       </c>
       <c r="G37" t="n">
-        <v>170.3954463157123</v>
+        <v>170.3954463157127</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61323501541776</v>
+        <v>97.61323501541797</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J37" t="n">
-        <v>118.8451657625463</v>
+        <v>118.8451657625464</v>
       </c>
       <c r="K37" t="n">
-        <v>322.8323487114227</v>
+        <v>322.8323487114228</v>
       </c>
       <c r="L37" t="n">
-        <v>639.3921471599187</v>
+        <v>639.3921471599189</v>
       </c>
       <c r="M37" t="n">
         <v>983.5491927594678</v>
@@ -7117,28 +7117,28 @@
         <v>1934.50496497192</v>
       </c>
       <c r="R37" t="n">
-        <v>1918.109483211296</v>
+        <v>1874.387084690161</v>
       </c>
       <c r="S37" t="n">
-        <v>1799.85857451997</v>
+        <v>1756.136175998835</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.526934571343</v>
+        <v>1607.804536050208</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.859043178835</v>
+        <v>1392.136644657699</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.609530454795</v>
+        <v>1210.88713193366</v>
       </c>
       <c r="W37" t="n">
-        <v>1038.627335899682</v>
+        <v>994.9049373785469</v>
       </c>
       <c r="X37" t="n">
-        <v>884.0727604835126</v>
+        <v>840.3503619623771</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.7151568218302</v>
+        <v>692.9927583006945</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.771103905775</v>
+        <v>1869.771103905776</v>
       </c>
       <c r="C38" t="n">
-        <v>1574.243562447211</v>
+        <v>1574.243562447212</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.412839322308</v>
+        <v>1289.412839322309</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0595622059118</v>
+        <v>977.0595622059125</v>
       </c>
       <c r="F38" t="n">
-        <v>639.508632898152</v>
+        <v>639.5086328981524</v>
       </c>
       <c r="G38" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249961</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J38" t="n">
         <v>262.6016642746363</v>
       </c>
       <c r="K38" t="n">
-        <v>596.4210379644829</v>
+        <v>596.4210379644828</v>
       </c>
       <c r="L38" t="n">
         <v>1047.455251212892</v>
       </c>
       <c r="M38" t="n">
-        <v>1580.987155884817</v>
+        <v>1580.987155884816</v>
       </c>
       <c r="N38" t="n">
-        <v>2127.765972943599</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O38" t="n">
-        <v>2984.048871110875</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P38" t="n">
-        <v>3378.823237468053</v>
+        <v>3378.823237468056</v>
       </c>
       <c r="Q38" t="n">
-        <v>3627.109599223736</v>
+        <v>3627.109599223738</v>
       </c>
       <c r="R38" t="n">
-        <v>3686.126665780538</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S38" t="n">
-        <v>3649.270972789481</v>
+        <v>3649.270972789483</v>
       </c>
       <c r="T38" t="n">
-        <v>3516.728200655551</v>
+        <v>3516.728200655553</v>
       </c>
       <c r="U38" t="n">
-        <v>3336.632699411235</v>
+        <v>3336.632699411237</v>
       </c>
       <c r="V38" t="n">
-        <v>3079.004787549512</v>
+        <v>3079.004787549514</v>
       </c>
       <c r="W38" t="n">
-        <v>2799.671107761245</v>
+        <v>2799.671107761247</v>
       </c>
       <c r="X38" t="n">
-        <v>2499.640324982013</v>
+        <v>2499.640324982015</v>
       </c>
       <c r="Y38" t="n">
-        <v>2182.935968488049</v>
+        <v>2182.935968488051</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>948.7542713645357</v>
+        <v>948.7542713645361</v>
       </c>
       <c r="C39" t="n">
-        <v>774.3012420834087</v>
+        <v>774.3012420834091</v>
       </c>
       <c r="D39" t="n">
-        <v>625.3668324221576</v>
+        <v>625.3668324221578</v>
       </c>
       <c r="E39" t="n">
-        <v>466.129377416702</v>
+        <v>466.1293774167023</v>
       </c>
       <c r="F39" t="n">
-        <v>319.5948194435871</v>
+        <v>319.5948194435872</v>
       </c>
       <c r="G39" t="n">
-        <v>183.2317192762057</v>
+        <v>183.2317192762053</v>
       </c>
       <c r="H39" t="n">
-        <v>92.72982491407316</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J39" t="n">
-        <v>167.3998028062279</v>
+        <v>167.3998028062281</v>
       </c>
       <c r="K39" t="n">
         <v>405.6640017865753</v>
       </c>
       <c r="L39" t="n">
-        <v>772.3621620992403</v>
+        <v>772.3621620992407</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.638487321556</v>
+        <v>1219.638487321557</v>
       </c>
       <c r="N39" t="n">
         <v>1693.161530876011</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>628.5016674734386</v>
+        <v>628.501667473437</v>
       </c>
       <c r="C40" t="n">
-        <v>533.0004600273793</v>
+        <v>533.0004600273776</v>
       </c>
       <c r="D40" t="n">
-        <v>412.5963975757539</v>
+        <v>412.5963975757547</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1182794752084</v>
+        <v>338.1182794752091</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6633074591457</v>
+        <v>264.6633074591463</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3954463157123</v>
+        <v>170.3954463157127</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61323501541776</v>
+        <v>97.61323501541797</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72253331561076</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J40" t="n">
-        <v>118.8451657625463</v>
+        <v>118.8451657625464</v>
       </c>
       <c r="K40" t="n">
         <v>322.8323487114228</v>
       </c>
       <c r="L40" t="n">
-        <v>639.392147159919</v>
+        <v>639.3921471599189</v>
       </c>
       <c r="M40" t="n">
-        <v>983.549192759468</v>
+        <v>983.5491927594678</v>
       </c>
       <c r="N40" t="n">
-        <v>1324.957569465333</v>
+        <v>1324.957569465332</v>
       </c>
       <c r="O40" t="n">
         <v>1624.287168385746</v>
       </c>
       <c r="P40" t="n">
-        <v>1856.894668819406</v>
+        <v>1856.894668819405</v>
       </c>
       <c r="Q40" t="n">
-        <v>1934.504964971921</v>
+        <v>1934.50496497192</v>
       </c>
       <c r="R40" t="n">
         <v>1918.109483211296</v>
       </c>
       <c r="S40" t="n">
-        <v>1799.85857451997</v>
+        <v>1799.858574519969</v>
       </c>
       <c r="T40" t="n">
-        <v>1651.526934571344</v>
+        <v>1651.526934571343</v>
       </c>
       <c r="U40" t="n">
-        <v>1435.859043178835</v>
+        <v>1435.859043178834</v>
       </c>
       <c r="V40" t="n">
-        <v>1254.609530454796</v>
+        <v>1254.609530454795</v>
       </c>
       <c r="W40" t="n">
-        <v>1038.627335899683</v>
+        <v>1038.627335899682</v>
       </c>
       <c r="X40" t="n">
-        <v>884.0727604835131</v>
+        <v>884.0727604835117</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.7151568218306</v>
+        <v>736.7151568218292</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2025.683159108422</v>
+        <v>1661.888363635582</v>
       </c>
       <c r="C41" t="n">
-        <v>1704.170275116083</v>
+        <v>1340.375479643244</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.354209457406</v>
+        <v>1029.559413984566</v>
       </c>
       <c r="E41" t="n">
-        <v>1055.015589807235</v>
+        <v>1029.559413984566</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4793179657006</v>
+        <v>666.0231421430314</v>
       </c>
       <c r="G41" t="n">
-        <v>323.8565007587703</v>
+        <v>298.4003249361011</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J41" t="n">
-        <v>430.0073132949893</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K41" t="n">
-        <v>763.8266869848358</v>
+        <v>596.4210379644828</v>
       </c>
       <c r="L41" t="n">
-        <v>1214.860900233245</v>
+        <v>1047.455251212892</v>
       </c>
       <c r="M41" t="n">
-        <v>1748.392804905169</v>
+        <v>1580.987155884816</v>
       </c>
       <c r="N41" t="n">
-        <v>2295.171621963952</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O41" t="n">
-        <v>2798.144092843288</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P41" t="n">
-        <v>3192.918459200467</v>
+        <v>3378.823237468056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223738</v>
       </c>
       <c r="R41" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S41" t="n">
-        <v>3686.126665780539</v>
+        <v>3623.285630255709</v>
       </c>
       <c r="T41" t="n">
-        <v>3686.126665780539</v>
+        <v>3464.757515588004</v>
       </c>
       <c r="U41" t="n">
-        <v>3480.045822002449</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V41" t="n">
-        <v>3196.432567606952</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W41" t="n">
-        <v>3033.539190565215</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.523065252209</v>
+        <v>2343.728269779369</v>
       </c>
       <c r="Y41" t="n">
-        <v>2364.83336622447</v>
+        <v>2001.03857075163</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H42" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J42" t="n">
         <v>167.3998028062281</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.6766666887214</v>
+        <v>766.6766666887219</v>
       </c>
       <c r="C43" t="n">
-        <v>645.1901167088878</v>
+        <v>645.1901167088882</v>
       </c>
       <c r="D43" t="n">
-        <v>542.5231102446254</v>
+        <v>542.5231102446259</v>
       </c>
       <c r="E43" t="n">
-        <v>442.0596496103056</v>
+        <v>442.059649610306</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6193350604685</v>
+        <v>342.6193350604689</v>
       </c>
       <c r="G43" t="n">
         <v>222.3661313832611</v>
       </c>
       <c r="H43" t="n">
-        <v>123.5985775491921</v>
+        <v>123.5985775491922</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J43" t="n">
         <v>165.350551014953</v>
@@ -7573,7 +7573,7 @@
         <v>415.843119216236</v>
       </c>
       <c r="L43" t="n">
-        <v>778.9083029171387</v>
+        <v>778.9083029171388</v>
       </c>
       <c r="M43" t="n">
         <v>1169.570733769094</v>
@@ -7582,10 +7582,10 @@
         <v>1557.484495727365</v>
       </c>
       <c r="O43" t="n">
-        <v>1903.319479900185</v>
+        <v>1903.319479900186</v>
       </c>
       <c r="P43" t="n">
-        <v>2182.432365586251</v>
+        <v>2182.432365586252</v>
       </c>
       <c r="Q43" t="n">
         <v>2306.548046991173</v>
@@ -7597,13 +7597,13 @@
         <v>2119.930971471674</v>
       </c>
       <c r="T43" t="n">
-        <v>1945.613988989273</v>
+        <v>1945.613988989274</v>
       </c>
       <c r="U43" t="n">
         <v>1703.96075506299</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.725899805176</v>
+        <v>1496.725899805177</v>
       </c>
       <c r="W43" t="n">
         <v>1254.758362716289</v>
@@ -7612,7 +7612,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.8754985708879</v>
+        <v>900.8754985708883</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025.683159108421</v>
+        <v>1704.170275116083</v>
       </c>
       <c r="C44" t="n">
-        <v>1704.170275116082</v>
+        <v>1704.170275116083</v>
       </c>
       <c r="D44" t="n">
-        <v>1393.354209457405</v>
+        <v>1393.354209457406</v>
       </c>
       <c r="E44" t="n">
         <v>1055.015589807235</v>
       </c>
       <c r="F44" t="n">
-        <v>691.4793179657006</v>
+        <v>691.4793179657007</v>
       </c>
       <c r="G44" t="n">
-        <v>323.8565007587703</v>
+        <v>323.8565007587704</v>
       </c>
       <c r="H44" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I44" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J44" t="n">
-        <v>430.0073132949893</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K44" t="n">
-        <v>763.8266869848358</v>
+        <v>596.4210379644828</v>
       </c>
       <c r="L44" t="n">
-        <v>1214.860900233245</v>
+        <v>1047.455251212892</v>
       </c>
       <c r="M44" t="n">
-        <v>1748.392804905169</v>
+        <v>1580.987155884816</v>
       </c>
       <c r="N44" t="n">
-        <v>2295.171621963952</v>
+        <v>2127.765972943599</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.144092843288</v>
+        <v>2630.738443822936</v>
       </c>
       <c r="P44" t="n">
-        <v>3192.918459200467</v>
+        <v>3168.63139671475</v>
       </c>
       <c r="Q44" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223738</v>
       </c>
       <c r="R44" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S44" t="n">
         <v>3623.285630255708</v>
       </c>
       <c r="T44" t="n">
-        <v>3623.285630255708</v>
+        <v>3464.757515588004</v>
       </c>
       <c r="U44" t="n">
-        <v>3622.471467282753</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V44" t="n">
-        <v>3338.858212887255</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W44" t="n">
-        <v>3033.539190565214</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.523065252207</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y44" t="n">
-        <v>2364.833366224469</v>
+        <v>2001.038570751631</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>948.7542713645361</v>
+        <v>948.754271364536</v>
       </c>
       <c r="C45" t="n">
-        <v>774.3012420834091</v>
+        <v>774.301242083409</v>
       </c>
       <c r="D45" t="n">
-        <v>625.3668324221578</v>
+        <v>625.3668324221577</v>
       </c>
       <c r="E45" t="n">
-        <v>466.1293774167023</v>
+        <v>466.1293774167022</v>
       </c>
       <c r="F45" t="n">
         <v>319.5948194435872</v>
@@ -7722,7 +7722,7 @@
         <v>92.72982491407282</v>
       </c>
       <c r="I45" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J45" t="n">
         <v>167.3998028062281</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.6766666887218</v>
+        <v>766.6766666887222</v>
       </c>
       <c r="C46" t="n">
-        <v>645.1901167088881</v>
+        <v>645.1901167088885</v>
       </c>
       <c r="D46" t="n">
-        <v>542.5231102446257</v>
+        <v>542.523110244626</v>
       </c>
       <c r="E46" t="n">
-        <v>442.0596496103059</v>
+        <v>442.0596496103061</v>
       </c>
       <c r="F46" t="n">
-        <v>342.6193350604688</v>
+        <v>342.619335060469</v>
       </c>
       <c r="G46" t="n">
-        <v>222.3661313832611</v>
+        <v>222.3661313832612</v>
       </c>
       <c r="H46" t="n">
-        <v>123.5985775491921</v>
+        <v>123.5985775491922</v>
       </c>
       <c r="I46" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J46" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149529</v>
       </c>
       <c r="K46" t="n">
-        <v>415.843119216236</v>
+        <v>415.8431192162359</v>
       </c>
       <c r="L46" t="n">
-        <v>778.9083029171388</v>
+        <v>778.9083029171386</v>
       </c>
       <c r="M46" t="n">
         <v>1169.570733769094</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.484495727366</v>
+        <v>1557.484495727365</v>
       </c>
       <c r="O46" t="n">
-        <v>1903.319479900186</v>
+        <v>1903.319479900185</v>
       </c>
       <c r="P46" t="n">
-        <v>2182.432365586252</v>
+        <v>2182.432365586251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2306.548046991173</v>
+        <v>2306.548046991174</v>
       </c>
       <c r="R46" t="n">
-        <v>2264.167222696774</v>
+        <v>2264.167222696775</v>
       </c>
       <c r="S46" t="n">
-        <v>2119.930971471674</v>
+        <v>2119.930971471675</v>
       </c>
       <c r="T46" t="n">
-        <v>1945.613988989273</v>
+        <v>1945.613988989274</v>
       </c>
       <c r="U46" t="n">
-        <v>1703.96075506299</v>
+        <v>1703.960755062991</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.725899805176</v>
+        <v>1496.725899805177</v>
       </c>
       <c r="W46" t="n">
-        <v>1254.758362716289</v>
+        <v>1254.75836271629</v>
       </c>
       <c r="X46" t="n">
-        <v>1074.218444766345</v>
+        <v>1074.218444766346</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.8754985708881</v>
+        <v>900.8754985708887</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>165.5682265218423</v>
+        <v>165.5682265218418</v>
       </c>
       <c r="K8" t="n">
-        <v>196.8928238898392</v>
+        <v>196.8928238898386</v>
       </c>
       <c r="L8" t="n">
-        <v>206.9884515625801</v>
+        <v>206.9884515625793</v>
       </c>
       <c r="M8" t="n">
-        <v>198.3252040166149</v>
+        <v>198.3252040166141</v>
       </c>
       <c r="N8" t="n">
-        <v>196.8739006563493</v>
+        <v>196.8739006563484</v>
       </c>
       <c r="O8" t="n">
-        <v>199.372402559245</v>
+        <v>199.3724025592442</v>
       </c>
       <c r="P8" t="n">
-        <v>205.0092287578872</v>
+        <v>205.0092287578865</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.6127329749888</v>
+        <v>202.6127329749883</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>117.6192276796909</v>
+        <v>117.6192276796907</v>
       </c>
       <c r="K9" t="n">
-        <v>122.0857268206295</v>
+        <v>122.0857268206291</v>
       </c>
       <c r="L9" t="n">
-        <v>117.3688804135386</v>
+        <v>117.368880413538</v>
       </c>
       <c r="M9" t="n">
-        <v>117.4115554169541</v>
+        <v>117.4115554169534</v>
       </c>
       <c r="N9" t="n">
-        <v>105.9649031362707</v>
+        <v>105.96490313627</v>
       </c>
       <c r="O9" t="n">
-        <v>119.3814220199296</v>
+        <v>119.381422019929</v>
       </c>
       <c r="P9" t="n">
-        <v>115.3424657637592</v>
+        <v>115.3424657637587</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.5268145151129</v>
+        <v>127.5268145151126</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>122.7231057150833</v>
+        <v>122.723105715083</v>
       </c>
       <c r="M10" t="n">
-        <v>126.1031129636128</v>
+        <v>126.1031129636124</v>
       </c>
       <c r="N10" t="n">
-        <v>115.1677679371614</v>
+        <v>115.1677679371611</v>
       </c>
       <c r="O10" t="n">
-        <v>126.8943457673266</v>
+        <v>126.8943457673263</v>
       </c>
       <c r="P10" t="n">
-        <v>127.8345507770353</v>
+        <v>127.834550777035</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>186.00025481413</v>
       </c>
       <c r="O23" t="n">
-        <v>39.40168402721133</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.0017854473908</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>21.13839585591369</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>167.7369666428357</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>231.1066821161365</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>187.7826043106959</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.066184437711</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>356.8792194827695</v>
       </c>
       <c r="O38" t="n">
-        <v>356.8792194827665</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>356.8792194827695</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.0661844377124</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>144.5642288228648</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.0661844377124</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.12037632566429</v>
+        <v>15.12037632566428</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.0387407269846</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.76742931123286</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.68982634589689</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>350.0332614100541</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>69.74216386628379</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>338.651261612963</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>73.78784377802822</v>
+        <v>342.6969415247049</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0481076422591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>286.4582574919343</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>125.9808478990535</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>115.3909977487317</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>25.20161406444237</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>141.0013888275032</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>41.85909236569608</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>203.2140139970837</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>819153.2234513429</v>
+        <v>819153.2234513427</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698446.9563060682</v>
+        <v>698446.956306068</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719759.5027728539</v>
+        <v>719759.5027728542</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719759.5027728539</v>
+        <v>719759.5027728542</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763542.7538790009</v>
+        <v>763542.7538790008</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761379.8642781666</v>
+        <v>761379.8642781667</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735578.2277219689</v>
+        <v>735578.2277219691</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="C2" t="n">
-        <v>696385.8872001895</v>
+        <v>696385.8872001894</v>
       </c>
       <c r="D2" t="n">
-        <v>696397.2264675623</v>
+        <v>696397.2264675621</v>
       </c>
       <c r="E2" t="n">
-        <v>649851.3584063667</v>
+        <v>649851.3584063665</v>
       </c>
       <c r="F2" t="n">
-        <v>649851.3584063661</v>
+        <v>649851.3584063665</v>
       </c>
       <c r="G2" t="n">
-        <v>669979.8745138865</v>
+        <v>669979.874513887</v>
       </c>
       <c r="H2" t="n">
-        <v>669979.8745138864</v>
+        <v>669979.8745138863</v>
       </c>
       <c r="I2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="J2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="K2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="N2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="O2" t="n">
-        <v>673517.2920815651</v>
+        <v>673517.2920815654</v>
       </c>
       <c r="P2" t="n">
-        <v>673517.2920815656</v>
+        <v>673517.2920815654</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>35702.60046935063</v>
+        <v>35702.60046935167</v>
       </c>
       <c r="E3" t="n">
-        <v>1124903.918865024</v>
+        <v>1124903.918865022</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.71800812476</v>
+        <v>16999.71800812483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.23978166307</v>
+        <v>28261.23978166277</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.54414803069</v>
+        <v>40637.54414803081</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.71800812477</v>
+        <v>16999.71800812481</v>
       </c>
       <c r="M3" t="n">
-        <v>204641.6335045841</v>
+        <v>204641.633504584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>423752.0599707544</v>
+        <v>423752.0599707541</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359851</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="F4" t="n">
         <v>58215.55741359854</v>
       </c>
       <c r="G4" t="n">
-        <v>71624.61628857296</v>
+        <v>71624.61628857303</v>
       </c>
       <c r="H4" t="n">
-        <v>71624.61628857294</v>
+        <v>71624.61628857304</v>
       </c>
       <c r="I4" t="n">
-        <v>85910.97499131854</v>
+        <v>85910.97499131851</v>
       </c>
       <c r="J4" t="n">
+        <v>82806.76150409839</v>
+      </c>
+      <c r="K4" t="n">
         <v>82806.76150409838</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>82806.76150409839</v>
       </c>
-      <c r="L4" t="n">
-        <v>82806.76150409838</v>
-      </c>
       <c r="M4" t="n">
-        <v>86578.44856836609</v>
+        <v>86578.44856836608</v>
       </c>
       <c r="N4" t="n">
         <v>86578.44856836606</v>
       </c>
       <c r="O4" t="n">
-        <v>70331.39278750683</v>
+        <v>70331.39278750686</v>
       </c>
       <c r="P4" t="n">
-        <v>70331.39278750683</v>
+        <v>70331.39278750682</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34616.49914020257</v>
+        <v>34616.4991402026</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.92993831306</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.92993831306</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.56094423254</v>
+        <v>86503.56094423248</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>85898.12629704369</v>
+        <v>85898.12629704371</v>
       </c>
       <c r="N5" t="n">
-        <v>85898.12629704369</v>
+        <v>85898.12629704371</v>
       </c>
       <c r="O5" t="n">
         <v>83735.41015318656</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226483.4081902344</v>
+        <v>226478.9946123664</v>
       </c>
       <c r="C6" t="n">
-        <v>224091.7291381357</v>
+        <v>224087.3184993578</v>
       </c>
       <c r="D6" t="n">
-        <v>202326.0668872547</v>
+        <v>202321.6895992624</v>
       </c>
       <c r="E6" t="n">
-        <v>-611523.6111940373</v>
+        <v>-611664.8880939721</v>
       </c>
       <c r="F6" t="n">
-        <v>513380.3076709858</v>
+        <v>513239.0307710502</v>
       </c>
       <c r="G6" t="n">
-        <v>501313.6102788758</v>
+        <v>501231.5348969032</v>
       </c>
       <c r="H6" t="n">
-        <v>518313.3282870004</v>
+        <v>518231.2529050274</v>
       </c>
       <c r="I6" t="n">
-        <v>497209.7286674266</v>
+        <v>497209.7286674265</v>
       </c>
       <c r="J6" t="n">
-        <v>485063.2570577057</v>
+        <v>485063.2570577053</v>
       </c>
       <c r="K6" t="n">
         <v>525700.8012057364</v>
       </c>
       <c r="L6" t="n">
-        <v>508701.0831976116</v>
+        <v>508701.083197611</v>
       </c>
       <c r="M6" t="n">
         <v>320767.2960146467</v>
       </c>
       <c r="N6" t="n">
-        <v>525408.929519231</v>
+        <v>525408.9295192308</v>
       </c>
       <c r="O6" t="n">
-        <v>519450.4891408718</v>
+        <v>519378.8179282159</v>
       </c>
       <c r="P6" t="n">
-        <v>519450.4891408723</v>
+        <v>519378.8179282159</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>72.70062572702901</v>
+      </c>
+      <c r="N2" t="n">
+        <v>72.70062572702901</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>72.70062572702916</v>
-      </c>
-      <c r="N2" t="n">
-        <v>72.70062572702916</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>45.36234588085185</v>
+        <v>45.36234588085308</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6782811575473</v>
+        <v>937.6782811575464</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5316664451345</v>
+        <v>921.5316664451351</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5316664451345</v>
+        <v>921.5316664451351</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451351</v>
       </c>
       <c r="P4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451351</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24964751015595</v>
+        <v>21.24964751015603</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72548910843661</v>
+        <v>25.72548910843646</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015597</v>
+        <v>21.24964751015602</v>
       </c>
       <c r="M2" t="n">
-        <v>25.7254891084366</v>
+        <v>25.72548910843646</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>41.68848298760953</v>
+        <v>41.68848298761075</v>
       </c>
       <c r="E3" t="n">
-        <v>1044.414354712447</v>
+        <v>1044.414354712445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2768257552547</v>
+        <v>106.2768257552535</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65818005106712</v>
+        <v>76.65818005106803</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.5966606388131</v>
+        <v>738.5966606388134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015595</v>
+        <v>21.24964751015603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72548910843661</v>
+        <v>25.72548910843646</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.6071955840997</v>
       </c>
       <c r="I8" t="n">
-        <v>203.4454098133344</v>
+        <v>203.4454098133342</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>138.413871873057</v>
+        <v>138.4138718730567</v>
       </c>
       <c r="S8" t="n">
-        <v>204.8645139811804</v>
+        <v>204.8645139811803</v>
       </c>
       <c r="T8" t="n">
         <v>222.2975634572231</v>
@@ -27947,10 +27947,10 @@
         <v>137.2459453249009</v>
       </c>
       <c r="H9" t="n">
-        <v>111.2931056928207</v>
+        <v>111.2931056928206</v>
       </c>
       <c r="I9" t="n">
-        <v>86.03725157627652</v>
+        <v>86.03725157627643</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.09982124425314</v>
+        <v>94.09982124425298</v>
       </c>
       <c r="S9" t="n">
         <v>169.8708170019</v>
@@ -28026,16 +28026,16 @@
         <v>167.9091784068703</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4998876833171</v>
+        <v>161.499887683317</v>
       </c>
       <c r="I10" t="n">
         <v>152.9904972194901</v>
       </c>
       <c r="J10" t="n">
-        <v>87.57585283937138</v>
+        <v>87.57585283937122</v>
       </c>
       <c r="K10" t="n">
-        <v>12.76570854133717</v>
+        <v>12.76570854133691</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.31232902368575</v>
+        <v>79.31232902368558</v>
       </c>
       <c r="R10" t="n">
-        <v>173.6153231357483</v>
+        <v>173.6153231357482</v>
       </c>
       <c r="S10" t="n">
         <v>222.5910305442904</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859313</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.90347009138407</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>28.90347009138247</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22478412874848</v>
+        <v>68.2247841287486</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>28.90347009138183</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.90347009138389</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>28.90347009138182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.90347009138384</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22478412874848</v>
+        <v>68.22478412874861</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="C35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="D35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="E35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="F35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="G35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="H35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="T35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="U35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="V35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="W35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="X35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="C37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="D37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="E37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="F37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="G37" t="n">
-        <v>29.41545119110367</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="H37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="I37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.70062572702916</v>
+        <v>29.41545119110572</v>
       </c>
       <c r="S37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="T37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="U37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="V37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="W37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="X37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="C40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="D40" t="n">
-        <v>29.41545119110322</v>
+        <v>29.41545119110575</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="F40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="T40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702901</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859348</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823611894707611</v>
+        <v>0.182361189470766</v>
       </c>
       <c r="H8" t="n">
-        <v>1.867606531667432</v>
+        <v>1.867606531667483</v>
       </c>
       <c r="I8" t="n">
-        <v>7.030479757071523</v>
+        <v>7.030479757071713</v>
       </c>
       <c r="J8" t="n">
-        <v>15.47767800484402</v>
+        <v>15.47767800484444</v>
       </c>
       <c r="K8" t="n">
-        <v>23.19702715514135</v>
+        <v>23.19702715514197</v>
       </c>
       <c r="L8" t="n">
-        <v>28.77796340740716</v>
+        <v>28.77796340740793</v>
       </c>
       <c r="M8" t="n">
-        <v>32.0210292106578</v>
+        <v>32.02102921065866</v>
       </c>
       <c r="N8" t="n">
-        <v>32.5391629402416</v>
+        <v>32.53916294024248</v>
       </c>
       <c r="O8" t="n">
-        <v>30.72580886244172</v>
+        <v>30.72580886244255</v>
       </c>
       <c r="P8" t="n">
-        <v>26.2237669973823</v>
+        <v>26.22376699738301</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.69295689946066</v>
+        <v>19.69295689946119</v>
       </c>
       <c r="R8" t="n">
-        <v>11.45524606809271</v>
+        <v>11.45524606809301</v>
       </c>
       <c r="S8" t="n">
-        <v>4.155555605064972</v>
+        <v>4.155555605065085</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7982861069082571</v>
+        <v>0.7982861069082786</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01458889515766088</v>
+        <v>0.01458889515766128</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09757183830975683</v>
+        <v>0.09757183830975945</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9423385436758095</v>
+        <v>0.9423385436758348</v>
       </c>
       <c r="I9" t="n">
-        <v>3.359381275138558</v>
+        <v>3.359381275138648</v>
       </c>
       <c r="J9" t="n">
-        <v>9.218398986975755</v>
+        <v>9.218398986976004</v>
       </c>
       <c r="K9" t="n">
-        <v>15.75571215372946</v>
+        <v>15.75571215372988</v>
       </c>
       <c r="L9" t="n">
-        <v>21.18549936633558</v>
+        <v>21.18549936633615</v>
       </c>
       <c r="M9" t="n">
-        <v>24.72247850506426</v>
+        <v>24.72247850506492</v>
       </c>
       <c r="N9" t="n">
-        <v>25.37680894706259</v>
+        <v>25.37680894706327</v>
       </c>
       <c r="O9" t="n">
-        <v>23.21482242451482</v>
+        <v>23.21482242451544</v>
       </c>
       <c r="P9" t="n">
-        <v>18.63194165057102</v>
+        <v>18.63194165057152</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.45495957090861</v>
+        <v>12.45495957090894</v>
       </c>
       <c r="R9" t="n">
-        <v>6.058012908389991</v>
+        <v>6.058012908390155</v>
       </c>
       <c r="S9" t="n">
-        <v>1.812354101937806</v>
+        <v>1.812354101937855</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3932829798538004</v>
+        <v>0.393282979853811</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006419199888799794</v>
+        <v>0.006419199888799966</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08180095158842136</v>
+        <v>0.08180095158842357</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7272848241225105</v>
+        <v>0.7272848241225301</v>
       </c>
       <c r="I10" t="n">
-        <v>2.459977707768163</v>
+        <v>2.45997770776823</v>
       </c>
       <c r="J10" t="n">
-        <v>5.783327277301391</v>
+        <v>5.783327277301546</v>
       </c>
       <c r="K10" t="n">
-        <v>9.50378328454568</v>
+        <v>9.503783284545937</v>
       </c>
       <c r="L10" t="n">
-        <v>12.16157056615494</v>
+        <v>12.16157056615527</v>
       </c>
       <c r="M10" t="n">
-        <v>12.82267098399227</v>
+        <v>12.82267098399261</v>
       </c>
       <c r="N10" t="n">
-        <v>12.5177765280718</v>
+        <v>12.51777652807214</v>
       </c>
       <c r="O10" t="n">
-        <v>11.56219268451614</v>
+        <v>11.56219268451646</v>
       </c>
       <c r="P10" t="n">
-        <v>9.893453272112341</v>
+        <v>9.893453272112607</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.84971422800863</v>
+        <v>6.849714228008814</v>
       </c>
       <c r="R10" t="n">
-        <v>3.6780682414212</v>
+        <v>3.678068241421299</v>
       </c>
       <c r="S10" t="n">
-        <v>1.425567492681852</v>
+        <v>1.42556749268189</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3495131567868912</v>
+        <v>0.3495131567869006</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004461870086641171</v>
+        <v>0.004461870086641291</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687134</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629127</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -36054,10 +36054,10 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>331.2566003140238</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8605412364929</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789366</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>74.48188670444806</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>348.660842261582</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>738.3020902270415</v>
       </c>
       <c r="O23" t="n">
-        <v>547.4546849154304</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597682</v>
+        <v>94.62350453597689</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>74.48188670444804</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36531,7 +36531,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>263.8605412364943</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789366</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>685.7637716667626</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>80.75159439813847</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,7 +36832,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>504.9282531982362</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>629.8686683355083</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>742.5368464408992</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>586.5445905300678</v>
       </c>
       <c r="Q35" t="n">
-        <v>372.8604892414305</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>909.181054895681</v>
       </c>
       <c r="O38" t="n">
-        <v>864.9322203709859</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>909.181054895681</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37798,10 +37798,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>372.8604892414319</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>543.3262150422366</v>
       </c>
       <c r="Q44" t="n">
-        <v>372.8604892414319</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564871</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
